--- a/products/manuscript/supplementary_materials/Supplementary Data Table 11.xlsx
+++ b/products/manuscript/supplementary_materials/Supplementary Data Table 11.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannah/Documents/OSUDocs/Projects/Disease_LHS/GCMP_Global_Disease/products/manuscript/supplementary_materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61892E9B-38ED-4A48-91E9-1477D2C6C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F85695-CD85-CF4A-AF2F-F52ED1CD3BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="27640" windowHeight="15740" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15740" activeTab="2" xr2:uid="{635964DC-1275-F24E-A533-4EEDB34ABDB9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 11" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 11a" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 11b" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 11c" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,114 +38,542 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PGLS + κ is similar to PGLS + 𝜹 except that branch lengths on the tree are raised to the power κ prior to shared branch length being summed up to form the VCV matrix. Therefore, PGLS + 𝜹 will generally have a larger effect on branch lengths for a given value of 𝜹 than PGLS + κ, for the same reason that the square root of 4 + 4 + 4 + 4 = sqrt(16) = 4 is smaller than sqrt(4) + sqrt(4) + sqrt(4) + sqrt(4) = 8. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">All </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Model 8</t>
+  </si>
+  <si>
+    <t>GR__EN</t>
+  </si>
+  <si>
+    <t>Model 7</t>
+  </si>
+  <si>
+    <t>EN__GR</t>
+  </si>
+  <si>
+    <t>Model 5</t>
+  </si>
+  <si>
+    <t>DS__EN__GR</t>
+  </si>
+  <si>
+    <t>Model 14</t>
+  </si>
+  <si>
+    <t>DS_and_GR__EN</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>EN__DS_plus_GR</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>GR__DS_plus_EN</t>
+  </si>
+  <si>
+    <t>Model 11</t>
+  </si>
+  <si>
+    <t>DS__EN</t>
+  </si>
+  <si>
+    <t>Model 2</t>
+  </si>
+  <si>
+    <t>EN__GR__DS</t>
+  </si>
+  <si>
+    <t>Model 6</t>
+  </si>
+  <si>
+    <t>DS__GR__EN</t>
+  </si>
+  <si>
+    <t>Model 13</t>
+  </si>
+  <si>
+    <t>DS_and_EN__GR</t>
+  </si>
+  <si>
+    <t>Model 10</t>
+  </si>
+  <si>
+    <t>EN__DS</t>
+  </si>
+  <si>
+    <t>Model 9</t>
+  </si>
+  <si>
+    <t>GR__DS</t>
+  </si>
+  <si>
+    <t>Model 12</t>
+  </si>
+  <si>
+    <t>DS__GR</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t>GR__DS__EN</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Growth rate is caused by disease susceptibilty, which is caused by </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is caused by both disease susceptibility and growth rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance is caused by growth rate, which is caused by disease susceptibilty</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Growth rate is caused by both disease susceptibility and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disease susceptibility is caused by growth rate, which is caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disease susceptibiilty is caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>which is caused by growth rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance is caused by growth rate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Growth rate is caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+  </si>
+  <si>
+    <t>Growth rate is caused by disease susceptibility</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance is caused by disease susceptibility</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disease susceptibility is caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+  </si>
+  <si>
+    <t>Disease susceptibility is caused by growth rate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both disease susceptibility and growth rate are caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both disease susceptibility and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abundance are caused by growth rate</t>
+    </r>
+  </si>
+  <si>
+    <t>evolutionary_model</t>
+  </si>
+  <si>
+    <t>path_model_name</t>
+  </si>
+  <si>
+    <t>path_model_formula</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CICc</t>
+  </si>
+  <si>
+    <t>delta_CICc</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Brownian Motion</t>
+  </si>
+  <si>
+    <t>model_explanation</t>
+  </si>
+  <si>
+    <t>Pagel's Lambda</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phylogenetic Path Analysis. b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Relative weight (w) of each path analysis model (explained in Supplementary Table 11a) under a Brownian motion model of evolution. Models are ordered by CICc criterion and best models are higlight in light red.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phylogenetic Path Analysis. c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-      </rPr>
-      <t>internal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> branches are multiplied by the inferred λ value. Thus λ = 1 is equivalent to regular PGLS without any changes to the tree, while when lambda = 0, all internal branches shrink to 0 length, leaving only branches leading to tip nodes. Thus at λ= 0, PGLS +  λ is equivalent to evolution on a star phylogeny or regular Pearson regression without accounting for phylogeny.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The summed shared branch lengths for each pair of taxa, as represented in the Variance Covariance Matrix (aka VCV matrix or </t>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Relative weight (w) of each path analysis model (explained in Supplementary Table 11a) under a Pagel's Lambda model of evolution. Models are ordered by CICc criterion and best models are higlight in light red.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phylogenetic Path Analysis. a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Explanation of models tested. The following 14 models were chosen based on feasible biological hypotheses. EN represents </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Endozoicomonas </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">abundances, DS represents Disease susceptibility, and GR represents growth rate. In the model formula, the "__" denotes causation. For visualizations of these models, see Supplementary Figure 3. </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>), are raised to the power 𝜹. Again, when 𝜹 = 1, this has no effect on the tree, whereas as value of 𝜹 between 0 and 1 this has the effect of shortening shared branch lengths - for example at 𝜹 = 0.5 this transformation would be equivalent to taking the square root of shared branch lengths.</t>
-    </r>
-  </si>
-  <si>
-    <t>Explanation of Transformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> λ</t>
-  </si>
-  <si>
-    <t>𝜹</t>
-  </si>
-  <si>
-    <t>κ</t>
-  </si>
-  <si>
-    <t>PGLS Test Parameter</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Phylogenetic generalized least squares (PGLS) model parameter explanation. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PGLS dictates branch length transformation through the use of three parameters, lambda (λ), delta (𝜹), and kappa (κ). Each parameter and their influence on branch length transformation is described below. By default, the PGLS model does not transform branch lengths (parameters λ, 𝜹, κ are all equal to 1), and thereby models trait evolution as a Brownian motion process on the coral phylogeny. For all PGLS analyses, we tested this default (notated as "BM" in all PGLS results) and three other models that transform branch length by estimating each parameter by maximum likelihood (ML) separately ("BM_Lambda": λ = ML, 𝜹 = 1, κ = 1; "BM_Delta": λ = 1, 𝜹= ML, κ = 1L; "BM_Kappa": λ = 1, 𝜹= 1, κ = ML).  We did not test models that combined multi-parameter branch length transformation, as we did not have a clear biological hypothesis for what such combinations would represent, and did not test Ornstein-Uhlenbeck models of trait change, as these have been shown to be prone to overfitting in comparative data (see Cooper et al. 2016 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Biological Journal of the Linnean Society; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">DOI: 10.111/bij.12701). </t>
-    </r>
-  </si>
-  <si>
-    <t>Supplementary Data Table 11</t>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Supplementary Data Table 11a.</t>
+  </si>
+  <si>
+    <t>Supplementary Data Table 11b.</t>
+  </si>
+  <si>
+    <t>Supplementary Data Table 11c</t>
   </si>
 </sst>
 </file>
@@ -191,17 +621,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -209,17 +642,17 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +662,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +690,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,6 +706,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -578,84 +1028,1375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06CC3E0-6C45-264B-AC77-3286BEF35D46}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" customWidth="1"/>
-    <col min="3" max="9" width="11.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="85.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" ht="144" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C17">
+    <sortCondition ref="A4:A17"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED5225F-D3DA-C245-BFD4-0902077852FF}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.1345800390000003</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.38809870499999999</v>
+      </c>
+      <c r="H4" s="4">
+        <v>16.134580039999999</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.22214304700000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4.2625415359999996</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.37163917699999999</v>
+      </c>
+      <c r="H5" s="4">
+        <v>16.262541540000001</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.12796149700000001</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.93802305799999997</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.20837530000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.87098949000000003</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.64694451500000005</v>
+      </c>
+      <c r="H6" s="4">
+        <v>17.537656160000001</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.4030761169999999</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.49582211399999998</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.110143435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.87098949000000003</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.64694451500000005</v>
+      </c>
+      <c r="H7" s="4">
+        <v>17.537656160000001</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.4030761169999999</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.49582211399999998</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.110143435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.87098949000000003</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.64694451500000005</v>
+      </c>
+      <c r="H8" s="4">
+        <v>17.537656160000001</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.4030761169999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.49582211399999998</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.110143435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.95999027000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.61878640200000001</v>
+      </c>
+      <c r="H9" s="4">
+        <v>17.62665694</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.492076897</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.47424156899999997</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.105349467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>3.1745897689999998</v>
+      </c>
+      <c r="G10">
+        <v>0.20447800099999999</v>
+      </c>
+      <c r="H10">
+        <v>19.841256439999999</v>
+      </c>
+      <c r="I10">
+        <v>3.7066763969999998</v>
+      </c>
+      <c r="J10">
+        <v>0.15671315299999999</v>
+      </c>
+      <c r="K10">
+        <v>3.4812737000000003E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3.1745897689999998</v>
+      </c>
+      <c r="G11">
+        <v>0.20447800099999999</v>
+      </c>
+      <c r="H11">
+        <v>19.841256439999999</v>
+      </c>
+      <c r="I11">
+        <v>3.7066763969999998</v>
+      </c>
+      <c r="J11">
+        <v>0.15671315299999999</v>
+      </c>
+      <c r="K11">
+        <v>3.4812737000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3.3915520469999998</v>
+      </c>
+      <c r="G12">
+        <v>0.183456807</v>
+      </c>
+      <c r="H12">
+        <v>20.058218709999998</v>
+      </c>
+      <c r="I12">
+        <v>3.9236386740000002</v>
+      </c>
+      <c r="J12">
+        <v>0.140602385</v>
+      </c>
+      <c r="K12">
+        <v>3.1233842000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
         <v>4</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="F13">
+        <v>9.7549800720000004</v>
+      </c>
+      <c r="G13">
+        <v>4.4763588E-2</v>
+      </c>
+      <c r="H13">
+        <v>21.754980069999998</v>
+      </c>
+      <c r="I13">
+        <v>5.620400032</v>
+      </c>
+      <c r="J13">
+        <v>6.0192952000000001E-2</v>
+      </c>
+      <c r="K13">
+        <v>1.3371446E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>10.29832493</v>
+      </c>
+      <c r="G14">
+        <v>3.5691361999999997E-2</v>
+      </c>
+      <c r="H14">
+        <v>22.29832493</v>
+      </c>
+      <c r="I14">
+        <v>6.1637448949999998</v>
+      </c>
+      <c r="J14">
+        <v>4.5873281000000002E-2</v>
+      </c>
+      <c r="K14">
+        <v>1.019043E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>12.186541849999999</v>
+      </c>
+      <c r="G15">
+        <v>1.6016684E-2</v>
+      </c>
+      <c r="H15">
+        <v>24.186541850000001</v>
+      </c>
+      <c r="I15">
+        <v>8.0519618089999998</v>
+      </c>
+      <c r="J15">
+        <v>1.784591E-2</v>
+      </c>
+      <c r="K15">
+        <v>3.9643450000000002E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>12.601925209999999</v>
+      </c>
+      <c r="G16">
+        <v>1.3393893E-2</v>
+      </c>
+      <c r="H16">
+        <v>24.601925210000001</v>
+      </c>
+      <c r="I16">
+        <v>8.4673451750000002</v>
+      </c>
+      <c r="J16">
+        <v>1.4499044000000001E-2</v>
+      </c>
+      <c r="K16">
+        <v>3.2208620000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="107" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
+      <c r="F17">
+        <v>8.7949898019999999</v>
+      </c>
+      <c r="G17">
+        <v>1.2308134E-2</v>
+      </c>
+      <c r="H17">
+        <v>25.461656470000001</v>
+      </c>
+      <c r="I17">
+        <v>9.3270764289999999</v>
+      </c>
+      <c r="J17">
+        <v>9.4330270000000001E-3</v>
+      </c>
+      <c r="K17">
+        <v>2.0954810000000002E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA0B266-9C57-BC44-B27B-D8D86AF7782C}">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.0624591939999997</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.28094862399999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>17.062459189999998</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.23060515100000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5.9564113499999998</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.20242723400000001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>17.95641135</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.893952156</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.63955920799999999</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.147485647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.5984173180000001</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.44968467699999998</v>
+      </c>
+      <c r="H6" s="4">
+        <v>18.26508398</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.20262479</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.54809185100000002</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.126392804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.5984173180000001</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.44968467699999998</v>
+      </c>
+      <c r="H7" s="4">
+        <v>18.26508398</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.20262479</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.54809185100000002</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.126392804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.980159824</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.37154699899999999</v>
+      </c>
+      <c r="H8" s="4">
+        <v>18.646826489999999</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.584367297</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.45285483900000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.104430658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>3.4640418770000001</v>
+      </c>
+      <c r="G9">
+        <v>0.17692649099999999</v>
+      </c>
+      <c r="H9">
+        <v>20.130708540000001</v>
+      </c>
+      <c r="I9">
+        <v>3.0682493489999998</v>
+      </c>
+      <c r="J9">
+        <v>0.215644368</v>
+      </c>
+      <c r="K9">
+        <v>4.9728702E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>8.6170662159999996</v>
+      </c>
+      <c r="G10">
+        <v>7.1417126999999997E-2</v>
+      </c>
+      <c r="H10">
+        <v>20.617066220000002</v>
+      </c>
+      <c r="I10">
+        <v>3.5546070219999999</v>
+      </c>
+      <c r="J10">
+        <v>0.16909349200000001</v>
+      </c>
+      <c r="K10">
+        <v>3.899383E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3.976251526</v>
+      </c>
+      <c r="G11">
+        <v>0.13695186500000001</v>
+      </c>
+      <c r="H11">
+        <v>20.64291819</v>
+      </c>
+      <c r="I11">
+        <v>3.5804589980000001</v>
+      </c>
+      <c r="J11">
+        <v>0.16692185700000001</v>
+      </c>
+      <c r="K11">
+        <v>3.8493039999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>3.976251526</v>
+      </c>
+      <c r="G12">
+        <v>0.13695186500000001</v>
+      </c>
+      <c r="H12">
+        <v>20.64291819</v>
+      </c>
+      <c r="I12">
+        <v>3.5804589980000001</v>
+      </c>
+      <c r="J12">
+        <v>0.16692185700000001</v>
+      </c>
+      <c r="K12">
+        <v>3.8493039999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>3.976251526</v>
+      </c>
+      <c r="G13">
+        <v>0.13695186500000001</v>
+      </c>
+      <c r="H13">
+        <v>20.64291819</v>
+      </c>
+      <c r="I13">
+        <v>3.5804589980000001</v>
+      </c>
+      <c r="J13">
+        <v>0.16692185700000001</v>
+      </c>
+      <c r="K13">
+        <v>3.8493039999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>9.280511572</v>
+      </c>
+      <c r="G14">
+        <v>5.4457954000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>21.280511570000002</v>
+      </c>
+      <c r="I14">
+        <v>4.2180523780000003</v>
+      </c>
+      <c r="J14">
+        <v>0.121356087</v>
+      </c>
+      <c r="K14">
+        <v>2.7985339000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>10.76439362</v>
+      </c>
+      <c r="G15">
+        <v>2.9343492999999998E-2</v>
+      </c>
+      <c r="H15">
+        <v>22.76439362</v>
+      </c>
+      <c r="I15">
+        <v>5.7019344299999997</v>
+      </c>
+      <c r="J15">
+        <v>5.7788399999999997E-2</v>
+      </c>
+      <c r="K15">
+        <v>1.3326302999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>10.99490042</v>
+      </c>
+      <c r="G16">
+        <v>2.6621386E-2</v>
+      </c>
+      <c r="H16">
+        <v>22.99490042</v>
+      </c>
+      <c r="I16">
+        <v>5.9324412300000002</v>
+      </c>
+      <c r="J16">
+        <v>5.1497571999999998E-2</v>
+      </c>
+      <c r="K16">
+        <v>1.1875604999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>7.3003517479999998</v>
+      </c>
+      <c r="G17">
+        <v>2.5986558E-2</v>
+      </c>
+      <c r="H17">
+        <v>23.967018410000001</v>
+      </c>
+      <c r="I17">
+        <v>6.9045592200000003</v>
+      </c>
+      <c r="J17">
+        <v>3.1673351000000002E-2</v>
+      </c>
+      <c r="K17">
+        <v>7.3040379999999997E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
